--- a/Resultados/field_16ha_100ha_18%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/Resultados/field_16ha_100ha_18%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://xmobotsaeroespacial-my.sharepoint.com/personal/paulo_acorinte_xmobots_com_br/Documents/Área de Trabalho/Repositorios/simulador/Resultados/field_16ha_100ha_18%_12m_0_TSP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="278" documentId="11_8E9CB718D34A03D623F9959170C6C8734ED6A02F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CAE9F60C-10C3-4C2F-91C3-0E3BE3777488}"/>
+  <xr:revisionPtr revIDLastSave="557" documentId="11_8E9CB718D34A03D623F9959170C6C8734ED6A02F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{671B4A4E-0631-42A0-A3C1-930B3521C778}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -588,7 +588,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-B562-4973-9FA9-F896445F8D33}"/>
+              <c16:uniqueId val="{00000009-E96E-4C17-8C9C-FA41D43921A7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -598,7 +598,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-B562-4973-9FA9-F896445F8D33}"/>
+              <c16:uniqueId val="{0000000A-E96E-4C17-8C9C-FA41D43921A7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -610,11 +610,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="700408432"/>
-        <c:axId val="700409872"/>
+        <c:axId val="584618800"/>
+        <c:axId val="584623120"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="700408432"/>
+        <c:axId val="584618800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -642,12 +642,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="700409872"/>
+        <c:crossAx val="584623120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="700409872"/>
+        <c:axId val="584623120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -676,7 +676,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="700408432"/>
+        <c:crossAx val="584618800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8298,10 +8298,10 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1">
+        <xdr:cNvPr id="3" name="Gráfico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A36C2294-77BC-4961-F72B-DB5F5A73C2CC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5945B4D0-2717-F150-7EF4-A0A72A410BC1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8651,13 +8651,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B53C25A-036A-4D8B-A786-67FE2593B7E8}">
   <sheetPr codeName="Planilha33"/>
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>33</v>
       </c>
@@ -8686,7 +8686,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -8722,8 +8722,11 @@
       <c r="J2">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -8754,7 +8757,7 @@
         <v>1.1939040000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -8785,7 +8788,7 @@
         <v>1.26688</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -8816,7 +8819,7 @@
         <v>1.3078399999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -8847,7 +8850,7 @@
         <v>1.3354079999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -8878,7 +8881,7 @@
         <v>1.3573759999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -8909,7 +8912,7 @@
         <v>1.3671039999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -8940,7 +8943,7 @@
         <v>1.3784160000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -8971,7 +8974,7 @@
         <v>1.386784</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -9002,7 +9005,7 @@
         <v>1.3879519999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -9033,7 +9036,7 @@
         <v>1.3893279999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -9064,7 +9067,7 @@
         <v>1.388992</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -9095,7 +9098,7 @@
         <v>1.391232</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -9126,7 +9129,7 @@
         <v>1.3908959999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>54</v>
       </c>

--- a/Resultados/field_16ha_100ha_18%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/Resultados/field_16ha_100ha_18%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://xmobotsaeroespacial-my.sharepoint.com/personal/paulo_acorinte_xmobots_com_br/Documents/Área de Trabalho/Repositorios/simulador/Resultados/field_16ha_100ha_18%_12m_0_TSP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="557" documentId="11_8E9CB718D34A03D623F9959170C6C8734ED6A02F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{671B4A4E-0631-42A0-A3C1-930B3521C778}"/>
+  <xr:revisionPtr revIDLastSave="558" documentId="11_8E9CB718D34A03D623F9959170C6C8734ED6A02F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E6143CD-FE31-443D-BCF1-BC127B1CD3AC}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1522" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1523" uniqueCount="70">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -272,6 +272,9 @@
   </si>
   <si>
     <t>Resultado 28</t>
+  </si>
+  <si>
+    <t>eld_16ha_100ha_18%_12m_0_TSP\</t>
   </si>
 </sst>
 </file>
@@ -8651,13 +8654,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B53C25A-036A-4D8B-A786-67FE2593B7E8}">
   <sheetPr codeName="Planilha33"/>
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>33</v>
       </c>
@@ -8685,8 +8688,11 @@
       <c r="J1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -8726,7 +8732,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -8757,7 +8763,7 @@
         <v>1.1939040000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -8788,7 +8794,7 @@
         <v>1.26688</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -8819,7 +8825,7 @@
         <v>1.3078399999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -8850,7 +8856,7 @@
         <v>1.3354079999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -8881,7 +8887,7 @@
         <v>1.3573759999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -8912,7 +8918,7 @@
         <v>1.3671039999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -8943,7 +8949,7 @@
         <v>1.3784160000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -8974,7 +8980,7 @@
         <v>1.386784</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -9005,7 +9011,7 @@
         <v>1.3879519999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -9036,7 +9042,7 @@
         <v>1.3893279999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -9067,7 +9073,7 @@
         <v>1.388992</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -9098,7 +9104,7 @@
         <v>1.391232</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -9129,7 +9135,7 @@
         <v>1.3908959999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>54</v>
       </c>
